--- a/alao_p0/P0_Hello_to_RoSA/client.xlsx
+++ b/alao_p0/P0_Hello_to_RoSA/client.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\P0_Hello_to_RoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_Lao-P0\alao_p0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480856D2-DA95-4056-873A-8AEA406FA84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8E4289-7B3E-4918-A62D-5E91D267B72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6396" yWindow="540" windowWidth="11808" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Client Name</t>
   </si>
   <si>
     <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <t>aaron LAO</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -376,6 +382,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
